--- a/DATA/IsoData/SRERIsoData.xlsx
+++ b/DATA/IsoData/SRERIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">9bf59397-8b0a-41cf-ad8c-eb453a7ba201</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdb139f2-bcb2-4de9-8235-27b5094486c3</t>
   </si>
   <si>
     <t xml:space="preserve">SRER.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144519Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a8eedafd-61a8-4407-8588-c51549fe61b6</t>
+    <t xml:space="preserve">20210112T145922Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab850b6c-38fc-41d3-bb25-57596b422ea4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20181023.0929</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000055207</t>
   </si>
   <si>
-    <t xml:space="preserve">9b63fd08-9257-4ca7-acf2-f613334b3e0b</t>
+    <t xml:space="preserve">3c433c61-2a41-4598-a895-f8a77c56c5cd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20181107.1113</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A0000055348</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143945Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fbc60df2-1a41-43c3-bc00-b10613e1c9d5</t>
+    <t xml:space="preserve">20210112T145901Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859a8a29-2133-4f73-a90f-3cd2d2e8c44a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20181203.1211</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000055349</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144012Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619bb5d7-11c2-4a1c-8a9e-e6a70e9b651e</t>
+    <t xml:space="preserve">20210112T145953Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2379683-9d43-4e46-a099-d9734248ff22</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20181219.1326</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000055350</t>
   </si>
   <si>
-    <t xml:space="preserve">95830a15-2d9f-4f58-96d3-97a6fc93cfc2</t>
+    <t xml:space="preserve">19da6a37-885f-46b6-8b49-f182669d5214</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190102.1113</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000055521</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50df0d69-74f3-4747-b971-02bf9aa094dd</t>
+    <t xml:space="preserve">20210112T150650Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bd72328a-ddbd-4f93-892e-efdaf265a2cc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190115.1216</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000055523</t>
   </si>
   <si>
-    <t xml:space="preserve">8b0bfa8f-a0d3-4ea0-91e6-0e4cd264ff22</t>
+    <t xml:space="preserve">66248bb3-25f5-4912-b3b8-d38d7dab8b72</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190227.0830</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000055525</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144928Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113d3147-3e23-4c91-935e-48d56e32a0ca</t>
+    <t xml:space="preserve">20210112T150211Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">705674ff-8788-4058-a5af-4002f21ac9e3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190423.0844</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000055354</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144659Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6325ea0d-d232-4fdb-954a-93d3e67b87cd</t>
+    <t xml:space="preserve">20210112T150420Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480b19e5-78ac-4bb7-b35f-5e65077ef2e6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190522.1016</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000094810</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145648Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0b72e5a1-26d1-4d3f-a7b7-a9d9e51616b1</t>
+    <t xml:space="preserve">20210112T150517Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f85706be-96f6-495f-a108-b0a1255fde31</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190702.1328</t>
@@ -227,10 +233,10 @@
     <t xml:space="preserve">A00000055358</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150141Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55900cb4-ba43-45ee-ade7-374d0c828b0a</t>
+    <t xml:space="preserve">20210112T150234Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62895d0a-b4f7-4834-aaad-0cdbf7f80929</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190717.1040</t>
@@ -242,7 +248,7 @@
     <t xml:space="preserve">A00000094812</t>
   </si>
   <si>
-    <t xml:space="preserve">97af69b2-09b6-4103-a5ea-a0940a07f220</t>
+    <t xml:space="preserve">92f2740c-4903-4e86-abe4-f6e305759e10</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190801.1050</t>
@@ -254,10 +260,10 @@
     <t xml:space="preserve">A00000094816</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144031Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83184337-282c-40ae-90dc-1d9d18cea156</t>
+    <t xml:space="preserve">20210112T145856Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c69814d7-c09f-4b53-86ad-24dd5dd6e765</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190812.0954</t>
@@ -269,7 +275,7 @@
     <t xml:space="preserve">A00000094818</t>
   </si>
   <si>
-    <t xml:space="preserve">6e0e6dcd-b116-48e7-affc-4864ef329107</t>
+    <t xml:space="preserve">344b79a1-774c-428f-a141-c9f16c93a312</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190828.0908</t>
@@ -281,7 +287,7 @@
     <t xml:space="preserve">A00000055363</t>
   </si>
   <si>
-    <t xml:space="preserve">ad303f9f-ee19-4733-8ca2-95f70fcced4d</t>
+    <t xml:space="preserve">4c3e728d-7b46-48fb-ad9f-bb240b6fb591</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190910.1106</t>
@@ -293,10 +299,10 @@
     <t xml:space="preserve">A00000055366</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144308Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eeab8064-1563-41ae-bcf2-8528a4a7adda</t>
+    <t xml:space="preserve">20210112T150134Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c7ec657-e3b3-43ad-b8a0-8797c8000188</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20190925.0956</t>
@@ -308,7 +314,7 @@
     <t xml:space="preserve">A00000094821</t>
   </si>
   <si>
-    <t xml:space="preserve">459de655-3ac4-4863-b563-5c02aeb542fd</t>
+    <t xml:space="preserve">8009c7c1-0372-4c98-a356-bdf7e18a59c0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20191203.1014</t>
@@ -320,10 +326,10 @@
     <t xml:space="preserve">A00000095995</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144501Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">821931a4-270e-450d-8c6c-17de60d9f934</t>
+    <t xml:space="preserve">20210112T150508Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b7e6fe8-02df-41c2-8670-486ab1634b72</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20191217.1200</t>
@@ -335,7 +341,7 @@
     <t xml:space="preserve">A00000094519</t>
   </si>
   <si>
-    <t xml:space="preserve">5debc397-4a69-45ab-90a3-808b0affb0c2</t>
+    <t xml:space="preserve">69c40727-954b-4d08-859b-cfe2253f2a23</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20191230.1237</t>
@@ -347,7 +353,55 @@
     <t xml:space="preserve">A00000094524</t>
   </si>
   <si>
-    <t xml:space="preserve">67375278-0fb0-4953-a8af-bbd7d2e15330</t>
+    <t xml:space="preserve">0f9b0185-c6dc-4db8-8882-dcded1a2e846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200113.1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200113.1205.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000094526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very tiny volume of samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T150621Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">940fcdda-19b5-4ca7-bda8-7cd5484b43db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200129.1233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200129.1233.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000094544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21758402-58a7-4a32-8648-bac6b2d26a1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200225.1255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SRER.20200225.1255.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000094493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T150334Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd5ab459-735e-44de-a5c4-133cdca857e8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SRER.20200309.1138</t>
@@ -359,7 +413,7 @@
     <t xml:space="preserve">A00000094508</t>
   </si>
   <si>
-    <t xml:space="preserve">20200706T135704Z</t>
+    <t xml:space="preserve">20210112T150819Z</t>
   </si>
 </sst>
 </file>
@@ -697,7 +751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -751,23 +805,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43369.7402777778</v>
@@ -788,35 +845,38 @@
         <v>0.188</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43384.7118055556</v>
@@ -837,35 +897,38 @@
         <v>0.233</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43396.6972222222</v>
@@ -886,35 +949,38 @@
         <v>0.056</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43424.7951388889</v>
@@ -935,35 +1001,38 @@
         <v>0.157</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43437.8097222222</v>
@@ -984,35 +1053,38 @@
         <v>0.19</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43453.8597222222</v>
@@ -1033,35 +1105,38 @@
         <v>0.128</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43467.7659722222</v>
@@ -1082,35 +1157,38 @@
         <v>0.206</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43592.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43480.80625</v>
@@ -1131,35 +1209,38 @@
         <v>0.121</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43592.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43565.7958333333</v>
@@ -1180,35 +1261,38 @@
         <v>0.123</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43623.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43593.7944444444</v>
@@ -1229,35 +1313,38 @@
         <v>0.057</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43635.7048611111</v>
@@ -1278,35 +1365,38 @@
         <v>0.158</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43648.8625</v>
@@ -1327,35 +1417,38 @@
         <v>0.107</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43663.7458333333</v>
@@ -1376,35 +1469,38 @@
         <v>0.079</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43678.7736111111</v>
@@ -1425,35 +1521,38 @@
         <v>0.064</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43689.7152777778</v>
@@ -1474,35 +1573,38 @@
         <v>0.276</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43705.6833333333</v>
@@ -1523,35 +1625,38 @@
         <v>0.205</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43777.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43718.7631944444</v>
@@ -1572,35 +1677,38 @@
         <v>0.131</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43788.75625</v>
@@ -1621,35 +1729,38 @@
         <v>0.212</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43802.7270833333</v>
@@ -1670,35 +1781,38 @@
         <v>0.052</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43816.8013888889</v>
@@ -1719,66 +1833,230 @@
         <v>0.547</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>43886.8381944444</v>
+        <v>43829.8277777778</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>43899.7763888889</v>
+        <v>43843.7951388889</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.828</v>
+        <v>0.963</v>
       </c>
       <c r="J22" t="n">
-        <v>-58.298</v>
+        <v>-33.708</v>
       </c>
       <c r="K22" t="n">
-        <v>0.029</v>
+        <v>0.018</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07</v>
+        <v>0.114</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43985.75</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22"/>
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>117</v>
+      </c>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="R22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>43843.8055555556</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43859.8145833333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-13.986</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-109.485</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>118</v>
+      </c>
+      <c r="R23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>43871.6819444444</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43886.8298611111</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-7.696</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-56.259</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>43886.8381944444</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>43899.7763888889</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-7.828</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-58.298</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
